--- a/Big Enough Metros.xlsx
+++ b/Big Enough Metros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,22 +491,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>COL (Numbeo)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>COL (Numbeo)</t>
+          <t>After COL</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>After COL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>After COL &amp; Tax</t>
+          <t>Updated</t>
         </is>
       </c>
     </row>
@@ -547,34 +542,35 @@
         <v>17.08615156167</v>
       </c>
       <c r="J2" t="n">
-        <v>2242</v>
+        <v>3499.617792</v>
       </c>
       <c r="K2" t="n">
         <v>109686</v>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>26342.4</v>
+      </c>
       <c r="M2" t="n">
-        <v>26342.4</v>
-      </c>
-      <c r="N2" t="n">
         <v>83343.60000000001</v>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>South Australia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -583,172 +579,176 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24</v>
-      </c>
-      <c r="G3" t="n">
-        <v>42</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>35065</v>
+        <v>1225000</v>
       </c>
       <c r="I3" t="n">
-        <v>10.31851263024</v>
+        <v>200.702895092659</v>
       </c>
       <c r="J3" t="n">
-        <v>3026</v>
+        <v>6103.549226</v>
       </c>
       <c r="K3" t="n">
-        <v>117613</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>57156.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22693.68392</v>
+      </c>
       <c r="M3" t="n">
-        <v>24708.96</v>
-      </c>
-      <c r="N3" t="n">
-        <v>92904.03999999999</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>34462.43608</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>The Netherlands</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Dutch</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>827000</v>
+        <v>1654000</v>
       </c>
       <c r="I4" t="n">
-        <v>77</v>
+        <v>116.817784140619</v>
       </c>
       <c r="J4" t="n">
-        <v>10740</v>
+        <v>14158.80306</v>
       </c>
       <c r="K4" t="n">
-        <v>56408.03584</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>88614.69500000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31995.57215</v>
+      </c>
       <c r="M4" t="n">
-        <v>19012.04625</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37395.98959</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>56619.12285</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Albanian</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>829000</v>
+        <v>1446000</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>129.866579177603</v>
       </c>
       <c r="J5" t="n">
-        <v>19279</v>
+        <v>11134.50442</v>
       </c>
       <c r="K5" t="n">
-        <v>26203.34249</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>63377.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26632.5177</v>
+      </c>
       <c r="M5" t="n">
-        <v>10295.65174</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15907.69075</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>36744.9823</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gdansk</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Polish</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>845000</v>
+        <v>2643000</v>
       </c>
       <c r="I6" t="n">
-        <v>116</v>
+        <v>143.536745406824</v>
       </c>
       <c r="J6" t="n">
-        <v>7284</v>
+        <v>18413.40343</v>
       </c>
       <c r="K6" t="n">
-        <v>62047.62201</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>55067.71916</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19183.89908</v>
+      </c>
       <c r="M6" t="n">
-        <v>14281.58983</v>
-      </c>
-      <c r="N6" t="n">
-        <v>47766.03218</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>35883.82008</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hawaii</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -757,141 +757,130 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56</v>
-      </c>
-      <c r="G7" t="n">
         <v>51</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>417176</v>
+        <v>2897000</v>
       </c>
       <c r="I7" t="n">
-        <v>65.80641789888001</v>
+        <v>636.28410085103</v>
       </c>
       <c r="J7" t="n">
-        <v>4971</v>
+        <v>4552.997625</v>
       </c>
       <c r="K7" t="n">
-        <v>111186</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>69744.075</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27420.22863</v>
+      </c>
       <c r="M7" t="n">
-        <v>37863</v>
-      </c>
-      <c r="N7" t="n">
-        <v>73323</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>42323.84637</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>El Paso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>40</v>
-      </c>
-      <c r="F8" t="n">
-        <v>28</v>
-      </c>
-      <c r="G8" t="n">
-        <v>42</v>
-      </c>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>49341</v>
+        <v>2203000</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00380112123</v>
+        <v>208.780720591744</v>
       </c>
       <c r="J8" t="n">
-        <v>3472</v>
+        <v>10551.74057</v>
       </c>
       <c r="K8" t="n">
-        <v>113259</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>69227.14578000001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>21810.24418</v>
+      </c>
       <c r="M8" t="n">
-        <v>9300</v>
-      </c>
-      <c r="N8" t="n">
-        <v>103959</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>47416.9016</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>881000</v>
+        <v>3814000</v>
       </c>
       <c r="I9" t="n">
-        <v>87</v>
+        <v>142.915374214587</v>
       </c>
       <c r="J9" t="n">
-        <v>10126</v>
+        <v>26687.12181</v>
       </c>
       <c r="K9" t="n">
-        <v>65000</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>40298.7108</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14715.33815</v>
+      </c>
       <c r="M9" t="n">
-        <v>14086.40659</v>
-      </c>
-      <c r="N9" t="n">
-        <v>50913.59341</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>25583.37265</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Alberta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -900,90 +889,82 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>909000</v>
+        <v>649180</v>
       </c>
       <c r="I10" t="n">
-        <v>354</v>
+        <v>155.34</v>
       </c>
       <c r="J10" t="n">
-        <v>2568</v>
+        <v>8844.686400000001</v>
       </c>
       <c r="K10" t="n">
-        <v>110959</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>70778.38047</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23110.78727</v>
+      </c>
       <c r="M10" t="n">
-        <v>22990.8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>87968.2</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>47667.5932</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hartford</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Connecticut</t>
-        </is>
-      </c>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>67</v>
-      </c>
-      <c r="F11" t="n">
-        <v>53</v>
-      </c>
-      <c r="G11" t="n">
-        <v>54</v>
-      </c>
+          <t>Danish</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>924000</v>
+        <v>1649000</v>
       </c>
       <c r="I11" t="n">
-        <v>525</v>
+        <v>135.458919907739</v>
       </c>
       <c r="J11" t="n">
-        <v>1760</v>
+        <v>12173.43237</v>
       </c>
       <c r="K11" t="n">
-        <v>108677</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>133015.1747</v>
+      </c>
+      <c r="L11" t="n">
+        <v>24369.24894</v>
+      </c>
       <c r="M11" t="n">
-        <v>32999.40838</v>
-      </c>
-      <c r="N11" t="n">
-        <v>75677.59162000001</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
+        <v>108645.9258</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1001,165 +982,157 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>930000</v>
+        <v>2314000</v>
       </c>
       <c r="I12" t="n">
-        <v>69</v>
+        <v>60.2730056470214</v>
       </c>
       <c r="J12" t="n">
-        <v>13478</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
+        <v>38391.97955</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38718.3692</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>930000</v>
+        <v>1557000</v>
       </c>
       <c r="I13" t="n">
-        <v>94</v>
+        <v>43.4959834566134</v>
       </c>
       <c r="J13" t="n">
-        <v>9894</v>
-      </c>
-      <c r="K13" t="n">
-        <v>137196.7363</v>
-      </c>
-      <c r="L13" t="n">
-        <v>19671.0728</v>
-      </c>
-      <c r="M13" t="n">
-        <v>40856.11171</v>
-      </c>
-      <c r="N13" t="n">
-        <v>96340.62462</v>
-      </c>
-      <c r="O13" t="n">
-        <v>76669.55181999999</v>
+        <v>35796.40869</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nice</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alberta</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>French</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>49</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40</v>
+      </c>
       <c r="H14" t="n">
-        <v>933000</v>
+        <v>483635</v>
       </c>
       <c r="I14" t="n">
-        <v>180</v>
+        <v>123.77</v>
       </c>
       <c r="J14" t="n">
-        <v>5183</v>
+        <v>7780.712727</v>
       </c>
       <c r="K14" t="n">
-        <v>53416.71381</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>69352.75767000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20548.23686</v>
+      </c>
       <c r="M14" t="n">
-        <v>21569.10441</v>
-      </c>
-      <c r="N14" t="n">
-        <v>31847.60939</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
+        <v>48804.52081</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Fukuoka</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>940000</v>
+        <v>2286000</v>
       </c>
       <c r="I15" t="n">
-        <v>74</v>
+        <v>121.16738248628</v>
       </c>
       <c r="J15" t="n">
-        <v>12703</v>
-      </c>
-      <c r="K15" t="n">
-        <v>58474.57469</v>
-      </c>
+        <v>18866.46351</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>21518.33235</v>
-      </c>
-      <c r="N15" t="n">
-        <v>36956.24234</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Louisiana</t>
-        </is>
-      </c>
+          <t>Glasgow</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1167,100 +1140,78 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>58</v>
-      </c>
-      <c r="F16" t="n">
-        <v>44</v>
-      </c>
-      <c r="G16" t="n">
-        <v>66</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>214369</v>
+        <v>1270000</v>
       </c>
       <c r="I16" t="n">
-        <v>55.74949406774999</v>
+        <v>85.74922452875209</v>
       </c>
       <c r="J16" t="n">
-        <v>3575</v>
+        <v>14810.62957</v>
       </c>
       <c r="K16" t="n">
-        <v>122375</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>58371.5737</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19939.2948</v>
+      </c>
       <c r="M16" t="n">
-        <v>26349.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>96025.39999999999</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
+        <v>38432.2789</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Buffalo</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>67</v>
-      </c>
-      <c r="F17" t="n">
-        <v>47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>63</v>
-      </c>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>184889</v>
+        <v>1485000</v>
       </c>
       <c r="I17" t="n">
-        <v>42.11061668049001</v>
+        <v>44.1173546488507</v>
       </c>
       <c r="J17" t="n">
-        <v>2524</v>
+        <v>33660.2231</v>
       </c>
       <c r="K17" t="n">
-        <v>107572</v>
-      </c>
-      <c r="L17" t="n">
-        <v>30551</v>
-      </c>
-      <c r="M17" t="n">
-        <v>26114.64</v>
-      </c>
-      <c r="N17" t="n">
-        <v>81457.36</v>
-      </c>
-      <c r="O17" t="n">
-        <v>50906.36</v>
+        <v>20544.4408</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1274,223 +1225,212 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H18" t="n">
-        <v>15811</v>
+        <v>924000</v>
       </c>
       <c r="I18" t="n">
-        <v>4.81478789649</v>
+        <v>326.2198759246</v>
       </c>
       <c r="J18" t="n">
-        <v>2395</v>
+        <v>2832.44544</v>
       </c>
       <c r="K18" t="n">
-        <v>109013</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+        <v>108677</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32999.40838</v>
+      </c>
       <c r="M18" t="n">
-        <v>26728.44</v>
-      </c>
-      <c r="N18" t="n">
-        <v>82284.56</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
+        <v>75677.59162000001</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Louisville</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Kentucky</t>
-        </is>
-      </c>
+          <t>Hiroshima</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>34</v>
-      </c>
-      <c r="F19" t="n">
-        <v>27</v>
-      </c>
-      <c r="G19" t="n">
-        <v>43</v>
-      </c>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>41819</v>
+        <v>1130000</v>
       </c>
       <c r="I19" t="n">
-        <v>11.96056509198</v>
+        <v>55.9234073013601</v>
       </c>
       <c r="J19" t="n">
-        <v>2133</v>
+        <v>20206.208</v>
       </c>
       <c r="K19" t="n">
-        <v>126000</v>
+        <v>17601.8537</v>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>22393.92</v>
-      </c>
-      <c r="N19" t="n">
-        <v>103606.08</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Cantonese</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>1067000</v>
+        <v>7450000</v>
       </c>
       <c r="I20" t="n">
-        <v>125</v>
+        <v>69.59357353058139</v>
       </c>
       <c r="J20" t="n">
-        <v>8536</v>
+        <v>107050.1143</v>
       </c>
       <c r="K20" t="n">
-        <v>70464.23363</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>115197.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>32369.8575</v>
+      </c>
       <c r="M20" t="n">
-        <v>28579.11304</v>
-      </c>
-      <c r="N20" t="n">
-        <v>41885.12059</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
+        <v>82827.8925</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Naha</t>
+          <t>Kaohsiung</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1068000</v>
+        <v>2361000</v>
       </c>
       <c r="I21" t="n">
-        <v>124</v>
+        <v>90.0988228744134</v>
       </c>
       <c r="J21" t="n">
-        <v>8613</v>
+        <v>26204.55989</v>
       </c>
       <c r="K21" t="n">
-        <v>21591.75</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+        <v>52957.1034</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10659.83992</v>
+      </c>
+      <c r="M21" t="n">
+        <v>42297.26348</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
+          <t>Kitakyushu</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>51</v>
-      </c>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>51</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>57739</v>
+        <v>1497000</v>
       </c>
       <c r="I22" t="n">
-        <v>11.68861634043</v>
+        <v>142.294003022349</v>
       </c>
       <c r="J22" t="n">
-        <v>2140</v>
-      </c>
-      <c r="K22" t="n">
-        <v>106777</v>
+        <v>10520.47148</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Career</t>
+        </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>England</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1498,46 +1438,45 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>35</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
-      <c r="G23" t="n">
-        <v>41</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>9719</v>
+        <v>1916000</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6676877533</v>
+        <v>116.817784140619</v>
       </c>
       <c r="J23" t="n">
-        <v>2150</v>
+        <v>16401.61226</v>
       </c>
       <c r="K23" t="n">
-        <v>104033</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>59621.92749</v>
+      </c>
+      <c r="L23" t="n">
+        <v>19947.66315</v>
+      </c>
       <c r="M23" t="n">
-        <v>22488</v>
-      </c>
-      <c r="N23" t="n">
-        <v>81545</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
+        <v>39674.26434</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ottawa</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ontario</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1545,122 +1484,135 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>45</v>
-      </c>
-      <c r="F24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G24" t="n">
-        <v>64</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1085000</v>
+        <v>827000</v>
       </c>
       <c r="I24" t="n">
-        <v>212</v>
+        <v>47.8455818022747</v>
       </c>
       <c r="J24" t="n">
-        <v>4900</v>
+        <v>17284.77257</v>
       </c>
       <c r="K24" t="n">
-        <v>75150.03762</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>56408.03584</v>
+      </c>
+      <c r="L24" t="n">
+        <v>19012.04625</v>
+      </c>
       <c r="M24" t="n">
-        <v>23468.1792</v>
-      </c>
-      <c r="N24" t="n">
-        <v>51681.85842</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
+        <v>37395.98959</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hiroshima</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>1130000</v>
+        <v>11262000</v>
       </c>
       <c r="I25" t="n">
-        <v>90</v>
+        <v>416.940069991251</v>
       </c>
       <c r="J25" t="n">
-        <v>12556</v>
+        <v>27011.0762</v>
       </c>
       <c r="K25" t="n">
-        <v>17601.8537</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+        <v>86960.21557</v>
+      </c>
+      <c r="L25" t="n">
+        <v>23698.8113</v>
+      </c>
+      <c r="M25" t="n">
+        <v>63261.40427</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sendai</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>1133000</v>
+        <v>2767000</v>
       </c>
       <c r="I26" t="n">
-        <v>114</v>
+        <v>151.61457090591</v>
       </c>
       <c r="J26" t="n">
-        <v>9939</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+        <v>18250.22479</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>21004.7738</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-21004.7738</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Edmonton</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1669,219 +1621,220 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
-      </c>
-      <c r="F27" t="n">
-        <v>49</v>
-      </c>
-      <c r="G27" t="n">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1170000</v>
+        <v>4721000</v>
       </c>
       <c r="I27" t="n">
-        <v>242</v>
+        <v>648.711524695777</v>
       </c>
       <c r="J27" t="n">
-        <v>4835</v>
+        <v>7277.502897</v>
       </c>
       <c r="K27" t="n">
-        <v>69352.75767000001</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
+        <v>72689.65647</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24548.97761</v>
+      </c>
       <c r="M27" t="n">
-        <v>20548.23686</v>
-      </c>
-      <c r="N27" t="n">
-        <v>48804.52081</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
+        <v>48140.67886</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tainan</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Quebec</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mandarin</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>65</v>
+      </c>
+      <c r="F28" t="n">
+        <v>67</v>
+      </c>
+      <c r="G28" t="n">
+        <v>73</v>
+      </c>
       <c r="H28" t="n">
-        <v>1170000</v>
+        <v>2442433</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>420.6800000000002</v>
       </c>
       <c r="J28" t="n">
-        <v>11700</v>
+        <v>11171.98166</v>
       </c>
       <c r="K28" t="n">
-        <v>39281.02808</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+        <v>69462.71262000001</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20019.31971</v>
+      </c>
+      <c r="M28" t="n">
+        <v>49443.39291</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Nagoya</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>1183000</v>
+        <v>9197000</v>
       </c>
       <c r="I29" t="n">
-        <v>119</v>
+        <v>888.560804899388</v>
       </c>
       <c r="J29" t="n">
-        <v>9941</v>
+        <v>10350.44529</v>
       </c>
       <c r="K29" t="n">
-        <v>73345.5996</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+        <v>43183.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>17038.6575</v>
+      </c>
       <c r="M29" t="n">
-        <v>18448.72641</v>
-      </c>
-      <c r="N29" t="n">
-        <v>54896.87319</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
+        <v>26144.8425</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nashville</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Tennessee</t>
-        </is>
-      </c>
+          <t>Naha</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>29</v>
-      </c>
-      <c r="F30" t="n">
-        <v>22</v>
-      </c>
-      <c r="G30" t="n">
-        <v>30</v>
-      </c>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>19326</v>
+        <v>1068000</v>
       </c>
       <c r="I30" t="n">
-        <v>5.27839576818</v>
+        <v>77.0500278374294</v>
       </c>
       <c r="J30" t="n">
-        <v>2074</v>
+        <v>13861.12413</v>
       </c>
       <c r="K30" t="n">
-        <v>124039</v>
+        <v>21591.75</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>33284.16</v>
-      </c>
-      <c r="N30" t="n">
-        <v>90754.84</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1223000</v>
+        <v>15126000</v>
       </c>
       <c r="I31" t="n">
-        <v>199</v>
+        <v>724.5188101487309</v>
       </c>
       <c r="J31" t="n">
-        <v>6146</v>
+        <v>20877.30475</v>
       </c>
       <c r="K31" t="n">
-        <v>110631.5207</v>
+        <v>43183.5</v>
       </c>
       <c r="L31" t="n">
-        <v>33347.32498</v>
+        <v>15440.32244</v>
       </c>
       <c r="M31" t="n">
-        <v>21431.70779</v>
-      </c>
-      <c r="N31" t="n">
-        <v>89199.81295000001</v>
-      </c>
-      <c r="O31" t="n">
-        <v>55852.48797</v>
+        <v>27743.17756</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Adelaide</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>South Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1890,41 +1843,50 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>54</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="n">
+        <v>64</v>
+      </c>
       <c r="H32" t="n">
-        <v>1225000</v>
+        <v>530388</v>
       </c>
       <c r="I32" t="n">
-        <v>323</v>
+        <v>123.19</v>
       </c>
       <c r="J32" t="n">
-        <v>3793</v>
+        <v>8236.501131999999</v>
       </c>
       <c r="K32" t="n">
-        <v>57156.12</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
+        <v>75150.03762</v>
+      </c>
+      <c r="L32" t="n">
+        <v>23468.1792</v>
+      </c>
       <c r="M32" t="n">
-        <v>22693.68392</v>
-      </c>
-      <c r="N32" t="n">
-        <v>34462.43608</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
+        <v>51681.85842</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Glasgow</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>Perth</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Western Australia</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1932,316 +1894,289 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>1270000</v>
+        <v>2033000</v>
       </c>
       <c r="I33" t="n">
-        <v>138</v>
+        <v>413.211842837827</v>
       </c>
       <c r="J33" t="n">
-        <v>9203</v>
+        <v>4919.994514</v>
       </c>
       <c r="K33" t="n">
-        <v>58371.5737</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>66682.14</v>
+      </c>
+      <c r="L33" t="n">
+        <v>24616.3715</v>
+      </c>
       <c r="M33" t="n">
-        <v>19939.2948</v>
-      </c>
-      <c r="N33" t="n">
-        <v>38432.2789</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
+        <v>42065.7685</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Florida</t>
-        </is>
-      </c>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>26</v>
-      </c>
-      <c r="F34" t="n">
-        <v>21</v>
-      </c>
-      <c r="G34" t="n">
-        <v>41</v>
-      </c>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>15566</v>
+        <v>1183000</v>
       </c>
       <c r="I34" t="n">
-        <v>4.185420785760001</v>
+        <v>73.9431718762427</v>
       </c>
       <c r="J34" t="n">
-        <v>2161</v>
+        <v>15998.77271</v>
       </c>
       <c r="K34" t="n">
-        <v>108320</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
+        <v>73345.5996</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18448.72641</v>
+      </c>
       <c r="M34" t="n">
-        <v>25113.96</v>
-      </c>
-      <c r="N34" t="n">
-        <v>83206.03999999999</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
+        <v>54896.87319</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>The Netherlands</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>39</v>
-      </c>
-      <c r="F35" t="n">
-        <v>50</v>
-      </c>
-      <c r="G35" t="n">
-        <v>50</v>
-      </c>
+          <t>Dutch</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>1319000</v>
+        <v>2881000</v>
       </c>
       <c r="I35" t="n">
-        <v>240</v>
+        <v>243.577507357035</v>
       </c>
       <c r="J35" t="n">
-        <v>5496</v>
+        <v>11827.85731</v>
       </c>
       <c r="K35" t="n">
-        <v>70778.38047</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>91046.55144</v>
+      </c>
+      <c r="L35" t="n">
+        <v>24587.42493</v>
+      </c>
       <c r="M35" t="n">
-        <v>23110.78727</v>
-      </c>
-      <c r="N35" t="n">
-        <v>47667.5932</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
+        <v>66459.12651</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Portuguese</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>1355000</v>
+        <v>1875000</v>
       </c>
       <c r="I36" t="n">
-        <v>307</v>
+        <v>544.321164399905</v>
       </c>
       <c r="J36" t="n">
-        <v>4414</v>
+        <v>3444.657534</v>
       </c>
       <c r="K36" t="n">
-        <v>50988.22248</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
+        <v>103448</v>
+      </c>
+      <c r="L36" t="n">
+        <v>28926.12</v>
+      </c>
       <c r="M36" t="n">
-        <v>15923.4607</v>
-      </c>
-      <c r="N36" t="n">
-        <v>35064.76178</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
+        <v>74521.88</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Sapporo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1374000</v>
+        <v>2028000</v>
       </c>
       <c r="I37" t="n">
-        <v>184</v>
+        <v>132.352063946552</v>
       </c>
       <c r="J37" t="n">
-        <v>7467</v>
+        <v>15322.76823</v>
       </c>
       <c r="K37" t="n">
-        <v>74817.72349999999</v>
+        <v>59060.60471</v>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>21539.3103</v>
-      </c>
-      <c r="N37" t="n">
-        <v>53278.4132</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Sendai</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1380000</v>
+        <v>1133000</v>
       </c>
       <c r="I38" t="n">
-        <v>266</v>
+        <v>70.8363159150561</v>
       </c>
       <c r="J38" t="n">
-        <v>5188</v>
-      </c>
-      <c r="K38" t="n">
-        <v>49560.29202</v>
+        <v>15994.62063</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Career</t>
+        </is>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>17792.62713</v>
-      </c>
-      <c r="N38" t="n">
-        <v>31767.66488</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Wisconsin</t>
-        </is>
-      </c>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>62</v>
-      </c>
-      <c r="F39" t="n">
-        <v>49</v>
-      </c>
-      <c r="G39" t="n">
-        <v>58</v>
-      </c>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>320156</v>
+        <v>23016000</v>
       </c>
       <c r="I39" t="n">
-        <v>69.30031185927001</v>
+        <v>664.24580450171</v>
       </c>
       <c r="J39" t="n">
-        <v>2453</v>
+        <v>34649.82367</v>
       </c>
       <c r="K39" t="n">
-        <v>108390</v>
+        <v>59262.81</v>
       </c>
       <c r="L39" t="n">
-        <v>30433</v>
+        <v>20522.16506</v>
       </c>
       <c r="M39" t="n">
-        <v>23734.8</v>
-      </c>
-      <c r="N39" t="n">
-        <v>84655.2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>54222.2</v>
+        <v>38740.64494</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2253,36 +2188,41 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>1387000</v>
+        <v>3937510</v>
       </c>
       <c r="I40" t="n">
-        <v>178</v>
+        <v>227.9033776675016</v>
       </c>
       <c r="J40" t="n">
-        <v>7792</v>
+        <v>47666.85719</v>
       </c>
       <c r="K40" t="n">
-        <v>72910.825</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>150974.1947</v>
+      </c>
+      <c r="L40" t="n">
+        <v>40331.81737</v>
+      </c>
       <c r="M40" t="n">
-        <v>35006.22855</v>
-      </c>
-      <c r="N40" t="n">
-        <v>37904.59645</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
+        <v>110642.3773</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2294,371 +2234,388 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1446000</v>
+        <v>940000</v>
       </c>
       <c r="I41" t="n">
-        <v>209</v>
+        <v>45.9814682255627</v>
       </c>
       <c r="J41" t="n">
-        <v>6919</v>
+        <v>20443.01838</v>
       </c>
       <c r="K41" t="n">
-        <v>63377.5</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
+        <v>58474.57469</v>
+      </c>
+      <c r="L41" t="n">
+        <v>21518.33235</v>
+      </c>
       <c r="M41" t="n">
-        <v>26632.5177</v>
-      </c>
-      <c r="N41" t="n">
-        <v>36744.9823</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>36956.24234</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Spanish</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>63</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1448000</v>
+        <v>4712000</v>
       </c>
       <c r="I42" t="n">
-        <v>152</v>
+        <v>522.5731726715979</v>
       </c>
       <c r="J42" t="n">
-        <v>9526</v>
+        <v>9016.919057999999</v>
       </c>
       <c r="K42" t="n">
-        <v>65000</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>83352.675</v>
+      </c>
+      <c r="L42" t="n">
+        <v>28456.01782</v>
+      </c>
       <c r="M42" t="n">
-        <v>15988.41852</v>
-      </c>
-      <c r="N42" t="n">
-        <v>49011.58148</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
+        <v>54896.65718</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Taichung</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1471000</v>
+        <v>2482000</v>
       </c>
       <c r="I43" t="n">
-        <v>178</v>
+        <v>86.9919669132268</v>
       </c>
       <c r="J43" t="n">
-        <v>8264</v>
+        <v>28531.37006</v>
       </c>
       <c r="K43" t="n">
-        <v>45251.82311</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>57595.6818</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12258.17306</v>
+      </c>
       <c r="M43" t="n">
-        <v>19771.5007</v>
-      </c>
-      <c r="N43" t="n">
-        <v>25480.32241</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
+        <v>45337.50874</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gwangju</t>
+          <t>Tainan</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1485000</v>
+        <v>1170000</v>
       </c>
       <c r="I44" t="n">
-        <v>71</v>
+        <v>62.1371192237334</v>
       </c>
       <c r="J44" t="n">
-        <v>20915</v>
+        <v>18829.3248</v>
       </c>
       <c r="K44" t="n">
-        <v>20544.4408</v>
+        <v>39281.02808</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Turin</t>
+          <t>Taipei</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1494000</v>
+        <v>9079000</v>
       </c>
       <c r="I45" t="n">
-        <v>147</v>
+        <v>254.14081762507</v>
       </c>
       <c r="J45" t="n">
-        <v>10163</v>
+        <v>35724.28894</v>
       </c>
       <c r="K45" t="n">
-        <v>36436.34352</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>32212.35</v>
+      </c>
+      <c r="L45" t="n">
+        <v>14630.88218</v>
+      </c>
       <c r="M45" t="n">
-        <v>15575.02577</v>
-      </c>
-      <c r="N45" t="n">
-        <v>20861.31774</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
+        <v>17581.46783</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kitakyushu</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>Tel Aviv</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Hebrew</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1497000</v>
+        <v>2799000</v>
       </c>
       <c r="I46" t="n">
-        <v>229</v>
+        <v>138.565775868926</v>
       </c>
       <c r="J46" t="n">
-        <v>6537</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+        <v>20199.79308</v>
+      </c>
+      <c r="K46" t="n">
+        <v>193897.5194</v>
+      </c>
+      <c r="L46" t="n">
+        <v>28638.67632</v>
+      </c>
+      <c r="M46" t="n">
+        <v>165258.8431</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Virginia Beach</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>33</v>
-      </c>
-      <c r="F47" t="n">
-        <v>21</v>
-      </c>
-      <c r="G47" t="n">
-        <v>42</v>
-      </c>
+          <t>Albanian</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>134096</v>
+        <v>829000</v>
       </c>
       <c r="I47" t="n">
-        <v>37.65583713129</v>
+        <v>26.7189612662054</v>
       </c>
       <c r="J47" t="n">
-        <v>2873</v>
+        <v>31026.65526</v>
       </c>
       <c r="K47" t="n">
-        <v>108108</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>26203.34249</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10295.65174</v>
+      </c>
       <c r="M47" t="n">
-        <v>27723.36</v>
-      </c>
-      <c r="N47" t="n">
-        <v>80384.64</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
+        <v>15907.69075</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Raleigh</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>North Carolina</t>
-        </is>
-      </c>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>31</v>
-      </c>
-      <c r="F48" t="n">
-        <v>29</v>
-      </c>
-      <c r="G48" t="n">
-        <v>39</v>
-      </c>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>12122</v>
+        <v>37732000</v>
       </c>
       <c r="I48" t="n">
-        <v>3.307414816470001</v>
+        <v>1974.71764893025</v>
       </c>
       <c r="J48" t="n">
-        <v>2181</v>
+        <v>19107.54179</v>
       </c>
       <c r="K48" t="n">
-        <v>129259</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
+        <v>57578</v>
+      </c>
+      <c r="L48" t="n">
+        <v>20111.76239</v>
+      </c>
       <c r="M48" t="n">
-        <v>32034.96</v>
-      </c>
-      <c r="N48" t="n">
-        <v>97224.03999999999</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
+        <v>37466.23761</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Daejeon</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>78</v>
+      </c>
+      <c r="G49" t="n">
+        <v>61</v>
+      </c>
       <c r="H49" t="n">
-        <v>1557000</v>
+        <v>4136940</v>
       </c>
       <c r="I49" t="n">
-        <v>70</v>
+        <v>735.4799999999993</v>
       </c>
       <c r="J49" t="n">
-        <v>22243</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+        <v>12040.73837</v>
+      </c>
+      <c r="K49" t="n">
+        <v>77838.24657</v>
+      </c>
+      <c r="L49" t="n">
+        <v>29583.94575</v>
+      </c>
+      <c r="M49" t="n">
+        <v>48254.30082</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2672,185 +2629,179 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G50" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H50" t="n">
-        <v>196129</v>
+        <v>909000</v>
       </c>
       <c r="I50" t="n">
-        <v>48.4068777759</v>
+        <v>219.965402052016</v>
       </c>
       <c r="J50" t="n">
-        <v>3012</v>
+        <v>4132.468068</v>
       </c>
       <c r="K50" t="n">
-        <v>123701</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
+        <v>110959</v>
+      </c>
+      <c r="L50" t="n">
+        <v>22990.8</v>
+      </c>
       <c r="M50" t="n">
-        <v>25238.04</v>
-      </c>
-      <c r="N50" t="n">
-        <v>98462.96000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
+        <v>87968.2</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Danish</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>1649000</v>
+        <v>930000</v>
       </c>
       <c r="I51" t="n">
-        <v>218</v>
+        <v>42.8746122643761</v>
       </c>
       <c r="J51" t="n">
-        <v>7564</v>
-      </c>
-      <c r="K51" t="n">
-        <v>133015.1747</v>
-      </c>
-      <c r="L51" t="n">
-        <v>59739.96481</v>
-      </c>
-      <c r="M51" t="n">
-        <v>24369.24894</v>
-      </c>
-      <c r="N51" t="n">
-        <v>108645.9258</v>
-      </c>
-      <c r="O51" t="n">
-        <v>48905.96098</v>
+        <v>21691.15826</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>British Columbia</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The Netherlands</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>80</v>
+      </c>
+      <c r="F52" t="n">
+        <v>74</v>
+      </c>
+      <c r="G52" t="n">
+        <v>79</v>
+      </c>
       <c r="H52" t="n">
-        <v>1654000</v>
+        <v>1670786</v>
       </c>
       <c r="I52" t="n">
-        <v>188</v>
+        <v>308.85</v>
       </c>
       <c r="J52" t="n">
-        <v>8798</v>
+        <v>11247.12</v>
       </c>
       <c r="K52" t="n">
-        <v>88614.69500000001</v>
+        <v>82669.43958000001</v>
       </c>
       <c r="L52" t="n">
-        <v>19383.71299</v>
+        <v>30107.06243</v>
       </c>
       <c r="M52" t="n">
-        <v>31995.57215</v>
-      </c>
-      <c r="N52" t="n">
-        <v>56619.12285</v>
-      </c>
-      <c r="O52" t="n">
-        <v>37235.40986</v>
+        <v>52562.37715</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Indiana</t>
-        </is>
-      </c>
+          <t>Athens</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>31</v>
-      </c>
-      <c r="F53" t="n">
-        <v>25</v>
-      </c>
-      <c r="G53" t="n">
-        <v>43</v>
-      </c>
+          <t>Greek</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>24300</v>
+        <v>3048101</v>
       </c>
       <c r="I53" t="n">
-        <v>7.06548756408</v>
+        <v>284</v>
       </c>
       <c r="J53" t="n">
-        <v>2352</v>
+        <v>10732.75</v>
       </c>
       <c r="K53" t="n">
-        <v>99353</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>38227.7064</v>
+      </c>
+      <c r="L53" t="n">
+        <v>15919.38062</v>
+      </c>
       <c r="M53" t="n">
-        <v>25704.12</v>
-      </c>
-      <c r="N53" t="n">
-        <v>73648.88</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
+        <v>22308.32578</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2864,44 +2815,45 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="n">
         <v>44</v>
       </c>
       <c r="G54" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H54" t="n">
-        <v>71456</v>
+        <v>260576</v>
       </c>
       <c r="I54" t="n">
-        <v>17.75954847027</v>
+        <v>61.20659901551999</v>
       </c>
       <c r="J54" t="n">
-        <v>2163</v>
+        <v>4257.318724</v>
       </c>
       <c r="K54" t="n">
-        <v>107239</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
+        <v>111394</v>
+      </c>
+      <c r="L54" t="n">
+        <v>31264.08</v>
+      </c>
       <c r="M54" t="n">
-        <v>23916.6</v>
-      </c>
-      <c r="N54" t="n">
-        <v>83322.39999999999</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
+        <v>80129.92</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2915,181 +2867,181 @@
         </is>
       </c>
       <c r="E55" t="n">
+        <v>42</v>
+      </c>
+      <c r="F55" t="n">
         <v>35</v>
       </c>
-      <c r="F55" t="n">
-        <v>25</v>
-      </c>
       <c r="G55" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>52907</v>
+        <v>131380</v>
       </c>
       <c r="I55" t="n">
-        <v>14.99862114501</v>
+        <v>29.53363441833</v>
       </c>
       <c r="J55" t="n">
-        <v>2398</v>
+        <v>4448.48738</v>
       </c>
       <c r="K55" t="n">
-        <v>107773</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
+        <v>114863</v>
+      </c>
+      <c r="L55" t="n">
+        <v>31449.36</v>
+      </c>
       <c r="M55" t="n">
-        <v>23832.12</v>
-      </c>
-      <c r="N55" t="n">
-        <v>83940.88</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
+        <v>83413.64</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Pennsylvania</t>
-        </is>
-      </c>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>62</v>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
-      <c r="G56" t="n">
-        <v>55</v>
-      </c>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>193769</v>
+        <v>4074857</v>
       </c>
       <c r="I56" t="n">
-        <v>45.68480027229</v>
+        <v>286</v>
       </c>
       <c r="J56" t="n">
-        <v>1975</v>
+        <v>14247.75175</v>
       </c>
       <c r="K56" t="n">
-        <v>118395</v>
+        <v>49355.02</v>
       </c>
       <c r="L56" t="n">
-        <v>31905</v>
+        <v>20361.44724</v>
       </c>
       <c r="M56" t="n">
-        <v>25456.2</v>
-      </c>
-      <c r="N56" t="n">
-        <v>92938.8</v>
-      </c>
-      <c r="O56" t="n">
-        <v>61033.8</v>
+        <v>28993.57276</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>German</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>1875000</v>
+        <v>3435723</v>
       </c>
       <c r="I57" t="n">
-        <v>876</v>
+        <v>445.5209</v>
       </c>
       <c r="J57" t="n">
-        <v>2140</v>
+        <v>7711.698823</v>
       </c>
       <c r="K57" t="n">
-        <v>103448</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+        <v>77397.645</v>
+      </c>
+      <c r="L57" t="n">
+        <v>24393.13133</v>
+      </c>
       <c r="M57" t="n">
-        <v>28926.12</v>
-      </c>
-      <c r="N57" t="n">
-        <v>74521.88</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
+        <v>53004.51367</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Katowice</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Polish</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>83</v>
+      </c>
+      <c r="F58" t="n">
+        <v>72</v>
+      </c>
+      <c r="G58" t="n">
+        <v>69</v>
+      </c>
       <c r="H58" t="n">
-        <v>1894000</v>
+        <v>1638103</v>
       </c>
       <c r="I58" t="n">
-        <v>281</v>
+        <v>258.9496012259099</v>
       </c>
       <c r="J58" t="n">
-        <v>6740</v>
+        <v>6325.952974</v>
       </c>
       <c r="K58" t="n">
-        <v>62456.16852</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
+        <v>111855</v>
+      </c>
+      <c r="L58" t="n">
+        <v>37886.76</v>
+      </c>
       <c r="M58" t="n">
-        <v>12167.6609</v>
-      </c>
-      <c r="N58" t="n">
-        <v>50288.50761</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
+        <v>73968.24000000001</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3103,45 +3055,50 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F59" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G59" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H59" t="n">
-        <v>131380</v>
+        <v>184889</v>
       </c>
       <c r="I59" t="n">
-        <v>29.53363441833</v>
+        <v>42.11061668049001</v>
       </c>
       <c r="J59" t="n">
-        <v>3612</v>
+        <v>4390.555508</v>
       </c>
       <c r="K59" t="n">
-        <v>114863</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
+        <v>107572</v>
+      </c>
+      <c r="L59" t="n">
+        <v>26114.64</v>
+      </c>
       <c r="M59" t="n">
-        <v>31449.36</v>
-      </c>
-      <c r="N59" t="n">
-        <v>83413.64</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
+        <v>81457.36</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Leeds</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3149,39 +3106,46 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>26</v>
+      </c>
+      <c r="F60" t="n">
+        <v>27</v>
+      </c>
+      <c r="G60" t="n">
+        <v>31</v>
+      </c>
       <c r="H60" t="n">
-        <v>1916000</v>
+        <v>37824</v>
       </c>
       <c r="I60" t="n">
-        <v>188</v>
+        <v>9.308417267339999</v>
       </c>
       <c r="J60" t="n">
-        <v>10191</v>
+        <v>4063.419045</v>
       </c>
       <c r="K60" t="n">
-        <v>59621.92749</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
+        <v>108851</v>
+      </c>
+      <c r="L60" t="n">
+        <v>31579.56</v>
+      </c>
       <c r="M60" t="n">
-        <v>19947.66315</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39674.26434</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
+        <v>77271.44</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3195,121 +3159,144 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F61" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G61" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H61" t="n">
-        <v>444003</v>
+        <v>3025122</v>
       </c>
       <c r="I61" t="n">
-        <v>122.04800970753</v>
+        <v>519.2693061620103</v>
       </c>
       <c r="J61" t="n">
-        <v>4095</v>
+        <v>5825.728508</v>
       </c>
       <c r="K61" t="n">
-        <v>108579</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+        <v>128004</v>
+      </c>
+      <c r="L61" t="n">
+        <v>30144.12</v>
+      </c>
       <c r="M61" t="n">
-        <v>34381.08</v>
-      </c>
-      <c r="N61" t="n">
-        <v>74197.92</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
+        <v>97859.88</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Warsaw</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>Cincinnati</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Polish</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>49</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44</v>
+      </c>
+      <c r="G62" t="n">
+        <v>36</v>
+      </c>
       <c r="H62" t="n">
-        <v>1963000</v>
+        <v>71456</v>
       </c>
       <c r="I62" t="n">
-        <v>211</v>
+        <v>17.75954847027</v>
       </c>
       <c r="J62" t="n">
-        <v>9303</v>
+        <v>4023.525717</v>
       </c>
       <c r="K62" t="n">
-        <v>77711.59759999999</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
+        <v>107239</v>
+      </c>
+      <c r="L62" t="n">
+        <v>23916.6</v>
+      </c>
       <c r="M62" t="n">
-        <v>16074.60801</v>
-      </c>
-      <c r="N62" t="n">
-        <v>61636.98959</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
+        <v>83322.39999999999</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>57</v>
+      </c>
+      <c r="F63" t="n">
+        <v>44</v>
+      </c>
+      <c r="G63" t="n">
+        <v>52</v>
+      </c>
       <c r="H63" t="n">
-        <v>2002000</v>
+        <v>176405</v>
       </c>
       <c r="I63" t="n">
-        <v>255</v>
+        <v>47.05490398248</v>
       </c>
       <c r="J63" t="n">
-        <v>7851</v>
+        <v>3748.918499</v>
       </c>
       <c r="K63" t="n">
-        <v>65000</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+        <v>112399</v>
+      </c>
+      <c r="L63" t="n">
+        <v>25135.8</v>
+      </c>
       <c r="M63" t="n">
-        <v>24110.13135</v>
-      </c>
-      <c r="N63" t="n">
-        <v>40889.86865</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
+        <v>87263.2</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -3327,77 +3314,93 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>2019000</v>
+        <v>1254465</v>
       </c>
       <c r="I64" t="n">
-        <v>307</v>
+        <v>217.4493</v>
       </c>
       <c r="J64" t="n">
-        <v>6577</v>
+        <v>5768.999946</v>
       </c>
       <c r="K64" t="n">
-        <v>65000</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>66480.09024</v>
+      </c>
+      <c r="L64" t="n">
+        <v>20465.98479</v>
+      </c>
       <c r="M64" t="n">
-        <v>23100.57639</v>
-      </c>
-      <c r="N64" t="n">
-        <v>41899.42361</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
+        <v>46014.10545</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sapporo</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>41</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30</v>
+      </c>
+      <c r="G65" t="n">
+        <v>48</v>
+      </c>
       <c r="H65" t="n">
-        <v>2028000</v>
+        <v>196129</v>
       </c>
       <c r="I65" t="n">
-        <v>213</v>
+        <v>48.4068777759</v>
       </c>
       <c r="J65" t="n">
-        <v>9521</v>
+        <v>4051.676312</v>
       </c>
       <c r="K65" t="n">
-        <v>59060.60471</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+        <v>123701</v>
+      </c>
+      <c r="L65" t="n">
+        <v>25238.04</v>
+      </c>
+      <c r="M65" t="n">
+        <v>98462.96000000001</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Western Australia</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3406,81 +3409,97 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>50</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="F66" t="n">
+        <v>39</v>
+      </c>
+      <c r="G66" t="n">
+        <v>49</v>
+      </c>
       <c r="H66" t="n">
-        <v>2033000</v>
+        <v>776314</v>
       </c>
       <c r="I66" t="n">
-        <v>665</v>
+        <v>187.6083787359599</v>
       </c>
       <c r="J66" t="n">
-        <v>3057</v>
+        <v>4137.949516</v>
       </c>
       <c r="K66" t="n">
-        <v>66682.14</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+        <v>112804</v>
+      </c>
+      <c r="L66" t="n">
+        <v>30036.96</v>
+      </c>
       <c r="M66" t="n">
-        <v>24616.3715</v>
-      </c>
-      <c r="N66" t="n">
-        <v>42065.7685</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
+        <v>82767.03999999999</v>
+      </c>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>61</v>
+      </c>
+      <c r="F67" t="n">
+        <v>45</v>
+      </c>
+      <c r="G67" t="n">
+        <v>72</v>
+      </c>
       <c r="H67" t="n">
-        <v>2038000</v>
+        <v>527035</v>
       </c>
       <c r="I67" t="n">
-        <v>186</v>
+        <v>127.2979156065</v>
       </c>
       <c r="J67" t="n">
-        <v>10957</v>
+        <v>4140.169912</v>
       </c>
       <c r="K67" t="n">
-        <v>78519.35000000001</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
+        <v>106196</v>
+      </c>
+      <c r="L67" t="n">
+        <v>33021.96</v>
+      </c>
       <c r="M67" t="n">
-        <v>25913.84039</v>
-      </c>
-      <c r="N67" t="n">
-        <v>52605.50961</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
+        <v>73174.03999999999</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3494,49 +3513,46 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F68" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G68" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H68" t="n">
-        <v>37824</v>
+        <v>271680</v>
       </c>
       <c r="I68" t="n">
-        <v>9.308417267339999</v>
+        <v>68.81080410648002</v>
       </c>
       <c r="J68" t="n">
-        <v>1815</v>
+        <v>3948.217195</v>
       </c>
       <c r="K68" t="n">
-        <v>108851</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
+        <v>124696</v>
+      </c>
+      <c r="L68" t="n">
+        <v>23392.44</v>
+      </c>
       <c r="M68" t="n">
-        <v>31579.56</v>
-      </c>
-      <c r="N68" t="n">
-        <v>77271.44</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
+        <v>101303.56</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Portland</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Oregon</t>
-        </is>
-      </c>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3544,81 +3560,87 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>67</v>
-      </c>
-      <c r="F69" t="n">
-        <v>49</v>
-      </c>
-      <c r="G69" t="n">
-        <v>83</v>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>444832</v>
+        <v>1057925</v>
       </c>
       <c r="I69" t="n">
-        <v>112.17756502032</v>
+        <v>218</v>
       </c>
       <c r="J69" t="n">
-        <v>3911</v>
+        <v>4852.866972</v>
       </c>
       <c r="K69" t="n">
-        <v>111565</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+        <v>72910.825</v>
+      </c>
+      <c r="L69" t="n">
+        <v>35006.22855</v>
+      </c>
+      <c r="M69" t="n">
+        <v>37904.59645</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Stockholm</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>El Paso</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Swedish</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>40</v>
+      </c>
+      <c r="F70" t="n">
+        <v>28</v>
+      </c>
+      <c r="G70" t="n">
+        <v>42</v>
+      </c>
       <c r="H70" t="n">
-        <v>2121000</v>
+        <v>49341</v>
       </c>
       <c r="I70" t="n">
-        <v>327</v>
+        <v>15.00380112123</v>
       </c>
       <c r="J70" t="n">
-        <v>6486</v>
+        <v>3288.566651</v>
       </c>
       <c r="K70" t="n">
-        <v>112677.6038</v>
+        <v>113259</v>
       </c>
       <c r="L70" t="n">
-        <v>44268.21361</v>
+        <v>9300</v>
       </c>
       <c r="M70" t="n">
-        <v>24506.93346</v>
-      </c>
-      <c r="N70" t="n">
-        <v>88170.67038</v>
-      </c>
-      <c r="O70" t="n">
-        <v>43902.45677</v>
+        <v>103959</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cologne</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -3636,301 +3658,308 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>2161000</v>
+        <v>3045944</v>
       </c>
       <c r="I71" t="n">
-        <v>301</v>
+        <v>652.3216</v>
       </c>
       <c r="J71" t="n">
-        <v>7179</v>
+        <v>4669.390068</v>
       </c>
       <c r="K71" t="n">
-        <v>66480.09024</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
+        <v>57123</v>
+      </c>
+      <c r="L71" t="n">
+        <v>16143.8955</v>
+      </c>
       <c r="M71" t="n">
-        <v>20465.98479</v>
-      </c>
-      <c r="N71" t="n">
-        <v>46014.10545</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
+        <v>40979.1045</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>37</v>
-      </c>
-      <c r="F72" t="n">
-        <v>31</v>
-      </c>
-      <c r="G72" t="n">
-        <v>45</v>
-      </c>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>110256</v>
+        <v>1436230</v>
       </c>
       <c r="I72" t="n">
-        <v>31.07208735567</v>
+        <v>263.9085</v>
       </c>
       <c r="J72" t="n">
-        <v>3599</v>
+        <v>5442.151352</v>
       </c>
       <c r="K72" t="n">
-        <v>112451</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+        <v>65000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>24110.13135</v>
+      </c>
       <c r="M72" t="n">
-        <v>25885.44</v>
-      </c>
-      <c r="N72" t="n">
-        <v>86565.56</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
+        <v>40889.86865</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Gdansk</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Polish</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>2203000</v>
+        <v>675781</v>
       </c>
       <c r="I73" t="n">
-        <v>336</v>
+        <v>108.8227</v>
       </c>
       <c r="J73" t="n">
-        <v>6557</v>
+        <v>6209.926789</v>
       </c>
       <c r="K73" t="n">
-        <v>69227.14578000001</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
+        <v>62047.62201</v>
+      </c>
+      <c r="L73" t="n">
+        <v>14281.58983</v>
+      </c>
       <c r="M73" t="n">
-        <v>21810.24418</v>
-      </c>
-      <c r="N73" t="n">
-        <v>47416.9016</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
+        <v>47766.03218</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Nevada</t>
-        </is>
-      </c>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>42</v>
-      </c>
-      <c r="F74" t="n">
-        <v>36</v>
-      </c>
-      <c r="G74" t="n">
-        <v>46</v>
-      </c>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>929155</v>
+        <v>1888557</v>
       </c>
       <c r="I74" t="n">
-        <v>238.15458669072</v>
+        <v>339.8981</v>
       </c>
       <c r="J74" t="n">
-        <v>5372</v>
+        <v>5556.244651</v>
       </c>
       <c r="K74" t="n">
-        <v>114905</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
+        <v>65000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>23100.57639</v>
+      </c>
       <c r="M74" t="n">
-        <v>28009.56</v>
-      </c>
-      <c r="N74" t="n">
-        <v>86895.44</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
+        <v>41899.42361</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>St Louis</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Missouri</t>
-        </is>
-      </c>
+          <t>Helsinki</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>66</v>
-      </c>
-      <c r="F75" t="n">
-        <v>43</v>
-      </c>
-      <c r="G75" t="n">
-        <v>58</v>
-      </c>
+          <t>Finnish</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>132421</v>
+        <v>474984</v>
       </c>
       <c r="I75" t="n">
-        <v>35.09174890239</v>
+        <v>102.4713</v>
       </c>
       <c r="J75" t="n">
-        <v>2275</v>
+        <v>4635.288125</v>
       </c>
       <c r="K75" t="n">
-        <v>111169</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+        <v>110631.5207</v>
+      </c>
+      <c r="L75" t="n">
+        <v>21431.70779</v>
+      </c>
       <c r="M75" t="n">
-        <v>23354.04</v>
-      </c>
-      <c r="N75" t="n">
-        <v>87814.96000000001</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
+        <v>89199.81295000001</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fukuoka</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>Honolulu</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>66</v>
+      </c>
+      <c r="F76" t="n">
+        <v>56</v>
+      </c>
+      <c r="G76" t="n">
+        <v>51</v>
+      </c>
       <c r="H76" t="n">
-        <v>2286000</v>
+        <v>417176</v>
       </c>
       <c r="I76" t="n">
-        <v>195</v>
+        <v>65.80641789888001</v>
       </c>
       <c r="J76" t="n">
-        <v>11723</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+        <v>6339.442464</v>
+      </c>
+      <c r="K76" t="n">
+        <v>111186</v>
+      </c>
+      <c r="L76" t="n">
+        <v>37863</v>
+      </c>
+      <c r="M76" t="n">
+        <v>73323</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Daegu</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>47</v>
+      </c>
+      <c r="F77" t="n">
+        <v>36</v>
+      </c>
+      <c r="G77" t="n">
+        <v>49</v>
+      </c>
       <c r="H77" t="n">
-        <v>2314000</v>
+        <v>925274</v>
       </c>
       <c r="I77" t="n">
-        <v>97</v>
+        <v>219.97028017041</v>
       </c>
       <c r="J77" t="n">
-        <v>23856</v>
+        <v>4206.359147</v>
       </c>
       <c r="K77" t="n">
-        <v>38718.3692</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+        <v>103851</v>
+      </c>
+      <c r="L77" t="n">
+        <v>26496</v>
+      </c>
+      <c r="M77" t="n">
+        <v>77355</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Indianapolis</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3944,90 +3973,102 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F78" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G78" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H78" t="n">
-        <v>126096</v>
+        <v>24300</v>
       </c>
       <c r="I78" t="n">
-        <v>31.9086535152</v>
+        <v>7.06548756408</v>
       </c>
       <c r="J78" t="n">
-        <v>2834</v>
+        <v>3439.253099</v>
       </c>
       <c r="K78" t="n">
-        <v>104105</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
+        <v>99353</v>
+      </c>
+      <c r="L78" t="n">
+        <v>25704.12</v>
+      </c>
       <c r="M78" t="n">
-        <v>29537.52</v>
-      </c>
-      <c r="N78" t="n">
-        <v>74567.48</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
+        <v>73648.88</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kaohsiung</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mandarin</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>26</v>
+      </c>
+      <c r="F79" t="n">
+        <v>21</v>
+      </c>
+      <c r="G79" t="n">
+        <v>41</v>
+      </c>
       <c r="H79" t="n">
-        <v>2361000</v>
+        <v>15566</v>
       </c>
       <c r="I79" t="n">
-        <v>145</v>
+        <v>4.185420785760001</v>
       </c>
       <c r="J79" t="n">
-        <v>16283</v>
+        <v>3719.100372</v>
       </c>
       <c r="K79" t="n">
-        <v>52957.1034</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+        <v>108320</v>
+      </c>
+      <c r="L79" t="n">
+        <v>25113.96</v>
+      </c>
       <c r="M79" t="n">
-        <v>10659.83992</v>
-      </c>
-      <c r="N79" t="n">
-        <v>42297.26348</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
+        <v>83206.03999999999</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4036,85 +4077,87 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F80" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G80" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H80" t="n">
-        <v>2460000</v>
+        <v>52907</v>
       </c>
       <c r="I80" t="n">
-        <v>352</v>
+        <v>14.99862114501</v>
       </c>
       <c r="J80" t="n">
-        <v>6989</v>
+        <v>3527.45759</v>
       </c>
       <c r="K80" t="n">
-        <v>82669.43958000001</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
+        <v>107773</v>
+      </c>
+      <c r="L80" t="n">
+        <v>23832.12</v>
+      </c>
       <c r="M80" t="n">
-        <v>30107.06243</v>
-      </c>
-      <c r="N80" t="n">
-        <v>52562.37715</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
+        <v>83940.88</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Taichung</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>Polish</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>2482000</v>
+        <v>1551601</v>
       </c>
       <c r="I81" t="n">
-        <v>140</v>
+        <v>256.1828</v>
       </c>
       <c r="J81" t="n">
-        <v>17729</v>
+        <v>6056.616603</v>
       </c>
       <c r="K81" t="n">
-        <v>57595.6818</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
+        <v>62456.16852</v>
+      </c>
+      <c r="L81" t="n">
+        <v>12167.6609</v>
+      </c>
       <c r="M81" t="n">
-        <v>12258.17306</v>
-      </c>
-      <c r="N81" t="n">
-        <v>45337.50874</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
+        <v>50288.50761</v>
+      </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4128,100 +4171,92 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F82" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G82" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H82" t="n">
-        <v>186833</v>
+        <v>929155</v>
       </c>
       <c r="I82" t="n">
-        <v>52.35919963176001</v>
+        <v>238.15458669072</v>
       </c>
       <c r="J82" t="n">
-        <v>3774</v>
+        <v>3901.478501</v>
       </c>
       <c r="K82" t="n">
-        <v>105298</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
+        <v>114905</v>
+      </c>
+      <c r="L82" t="n">
+        <v>28009.56</v>
+      </c>
       <c r="M82" t="n">
-        <v>26560.56</v>
-      </c>
-      <c r="N82" t="n">
-        <v>78737.44</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
+        <v>86895.44</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Ohio</t>
-        </is>
-      </c>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>57</v>
-      </c>
-      <c r="F83" t="n">
-        <v>44</v>
-      </c>
-      <c r="G83" t="n">
-        <v>52</v>
-      </c>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>176405</v>
+        <v>1898234</v>
       </c>
       <c r="I83" t="n">
-        <v>47.05490398248</v>
+        <v>258</v>
       </c>
       <c r="J83" t="n">
-        <v>1828</v>
+        <v>7357.496124</v>
       </c>
       <c r="K83" t="n">
-        <v>112399</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
+        <v>53841.84</v>
+      </c>
+      <c r="L83" t="n">
+        <v>18728.8537</v>
+      </c>
       <c r="M83" t="n">
-        <v>25135.8</v>
-      </c>
-      <c r="N83" t="n">
-        <v>87263.2</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
+        <v>35112.9863</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4229,223 +4264,224 @@
           <t>English</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>69</v>
+      </c>
+      <c r="F84" t="n">
+        <v>53</v>
+      </c>
+      <c r="G84" t="n">
+        <v>59</v>
+      </c>
       <c r="H84" t="n">
-        <v>2643000</v>
+        <v>8447978</v>
       </c>
       <c r="I84" t="n">
-        <v>231</v>
+        <v>1649.610047044982</v>
       </c>
       <c r="J84" t="n">
-        <v>11442</v>
+        <v>5121.196985</v>
       </c>
       <c r="K84" t="n">
-        <v>55067.71916</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+        <v>114834</v>
+      </c>
+      <c r="L84" t="n">
+        <v>37424.04</v>
+      </c>
       <c r="M84" t="n">
-        <v>19183.89908</v>
-      </c>
-      <c r="N84" t="n">
-        <v>35883.82008</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
+        <v>77409.96000000001</v>
+      </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Portuguese</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>34</v>
+      </c>
+      <c r="F85" t="n">
+        <v>27</v>
+      </c>
+      <c r="G85" t="n">
+        <v>43</v>
+      </c>
       <c r="H85" t="n">
-        <v>2727000</v>
+        <v>41819</v>
       </c>
       <c r="I85" t="n">
-        <v>367</v>
+        <v>11.96056509198</v>
       </c>
       <c r="J85" t="n">
-        <v>7431</v>
+        <v>3496.406706</v>
       </c>
       <c r="K85" t="n">
-        <v>53841.84</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
+        <v>126000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>22393.92</v>
+      </c>
       <c r="M85" t="n">
-        <v>18728.8537</v>
-      </c>
-      <c r="N85" t="n">
-        <v>35112.9863</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
+        <v>103606.08</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Manchester</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>French</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>2767000</v>
+        <v>1164151</v>
       </c>
       <c r="I86" t="n">
-        <v>244</v>
+        <v>153.4222</v>
       </c>
       <c r="J86" t="n">
-        <v>11340</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+        <v>7587.891452</v>
+      </c>
+      <c r="K86" t="n">
+        <v>45251.82311</v>
+      </c>
+      <c r="L86" t="n">
+        <v>19771.5007</v>
+      </c>
       <c r="M86" t="n">
-        <v>21004.7738</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-21004.7738</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
+        <v>25480.32241</v>
+      </c>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tel Aviv</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hebrew</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>2799000</v>
+        <v>5854761</v>
       </c>
       <c r="I87" t="n">
-        <v>223</v>
+        <v>494.9936</v>
       </c>
       <c r="J87" t="n">
-        <v>12552</v>
+        <v>11827.95293</v>
       </c>
       <c r="K87" t="n">
-        <v>193897.5194</v>
+        <v>43745.3733</v>
       </c>
       <c r="L87" t="n">
-        <v>77867.40512</v>
+        <v>19880.93022</v>
       </c>
       <c r="M87" t="n">
-        <v>28638.67632</v>
-      </c>
-      <c r="N87" t="n">
-        <v>165258.8431</v>
-      </c>
-      <c r="O87" t="n">
-        <v>87391.43799999999</v>
+        <v>23864.44307</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Denver</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Colorado</t>
-        </is>
-      </c>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>61</v>
-      </c>
-      <c r="F88" t="n">
-        <v>45</v>
-      </c>
-      <c r="G88" t="n">
-        <v>72</v>
-      </c>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>527035</v>
+        <v>942741</v>
       </c>
       <c r="I88" t="n">
-        <v>127.2979156065</v>
+        <v>140</v>
       </c>
       <c r="J88" t="n">
-        <v>4117</v>
+        <v>6733.864286</v>
       </c>
       <c r="K88" t="n">
-        <v>106196</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
+        <v>49560.29202</v>
+      </c>
+      <c r="L88" t="n">
+        <v>17792.62713</v>
+      </c>
       <c r="M88" t="n">
-        <v>33021.96</v>
-      </c>
-      <c r="N88" t="n">
-        <v>73174.03999999999</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
+        <v>31767.66488</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4459,94 +4495,102 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G89" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H89" t="n">
-        <v>145324</v>
+        <v>9719</v>
       </c>
       <c r="I89" t="n">
-        <v>38.85759161433</v>
+        <v>2.6676877533</v>
       </c>
       <c r="J89" t="n">
-        <v>2841</v>
+        <v>3643.22998</v>
       </c>
       <c r="K89" t="n">
-        <v>122527</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
+        <v>104033</v>
+      </c>
+      <c r="L89" t="n">
+        <v>22488</v>
+      </c>
       <c r="M89" t="n">
-        <v>33465.12</v>
-      </c>
-      <c r="N89" t="n">
-        <v>89061.88</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
+        <v>81545</v>
+      </c>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>The Netherlands</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>77</v>
+      </c>
+      <c r="F90" t="n">
+        <v>57</v>
+      </c>
+      <c r="G90" t="n">
+        <v>64</v>
+      </c>
       <c r="H90" t="n">
-        <v>2881000</v>
+        <v>2476221</v>
       </c>
       <c r="I90" t="n">
-        <v>392</v>
+        <v>560.8930050778197</v>
       </c>
       <c r="J90" t="n">
-        <v>7349</v>
+        <v>4414.783172</v>
       </c>
       <c r="K90" t="n">
-        <v>91046.55144</v>
+        <v>107717</v>
       </c>
       <c r="L90" t="n">
-        <v>20310.02819</v>
+        <v>37321.2</v>
       </c>
       <c r="M90" t="n">
-        <v>24587.42493</v>
-      </c>
-      <c r="N90" t="n">
-        <v>66459.12651</v>
-      </c>
-      <c r="O90" t="n">
-        <v>46149.09831</v>
+        <v>70395.8</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Milwaukee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Queensland</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4555,30 +4599,35 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>51</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="F91" t="n">
+        <v>49</v>
+      </c>
+      <c r="G91" t="n">
+        <v>58</v>
+      </c>
       <c r="H91" t="n">
-        <v>2897000</v>
+        <v>320156</v>
       </c>
       <c r="I91" t="n">
-        <v>1024</v>
+        <v>69.30031185927001</v>
       </c>
       <c r="J91" t="n">
-        <v>2829</v>
+        <v>4619.83491</v>
       </c>
       <c r="K91" t="n">
-        <v>69744.075</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>108390</v>
+      </c>
+      <c r="L91" t="n">
+        <v>23734.8</v>
+      </c>
       <c r="M91" t="n">
-        <v>27420.22863</v>
-      </c>
-      <c r="N91" t="n">
-        <v>42323.84637</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
+        <v>84655.2</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4617,79 +4666,67 @@
         <v>100.1159903920501</v>
       </c>
       <c r="J92" t="n">
-        <v>2660</v>
+        <v>4275.360992</v>
       </c>
       <c r="K92" t="n">
         <v>112737</v>
       </c>
       <c r="L92" t="n">
-        <v>32870</v>
+        <v>26283.12</v>
       </c>
       <c r="M92" t="n">
-        <v>26283.12</v>
-      </c>
-      <c r="N92" t="n">
         <v>86453.88</v>
       </c>
-      <c r="O92" t="n">
-        <v>53583.88</v>
+      <c r="N92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>San Diego</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>53</v>
-      </c>
-      <c r="F93" t="n">
-        <v>37</v>
-      </c>
-      <c r="G93" t="n">
-        <v>43</v>
-      </c>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>1232552</v>
+        <v>1809279</v>
       </c>
       <c r="I93" t="n">
-        <v>275.5928648207697</v>
+        <v>290.1371</v>
       </c>
       <c r="J93" t="n">
-        <v>4258</v>
+        <v>6235.945007</v>
       </c>
       <c r="K93" t="n">
-        <v>101290</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>78519.35000000001</v>
+      </c>
+      <c r="L93" t="n">
+        <v>25913.84039</v>
+      </c>
       <c r="M93" t="n">
-        <v>39137.28</v>
-      </c>
-      <c r="N93" t="n">
-        <v>62152.72</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
+        <v>52605.50961</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Naples</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -4707,209 +4744,234 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>3214000</v>
+        <v>2540453</v>
       </c>
       <c r="I94" t="n">
-        <v>442</v>
+        <v>329.8535</v>
       </c>
       <c r="J94" t="n">
-        <v>7271</v>
+        <v>7701.76154</v>
       </c>
       <c r="K94" t="n">
-        <v>36732.47364</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
+        <v>31407.74</v>
+      </c>
+      <c r="L94" t="n">
+        <v>14314.59813</v>
+      </c>
       <c r="M94" t="n">
-        <v>20030.48642</v>
-      </c>
-      <c r="N94" t="n">
-        <v>16701.98722</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
+        <v>17093.14187</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Athens</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>Nashville</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Greek</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>29</v>
+      </c>
+      <c r="F95" t="n">
+        <v>22</v>
+      </c>
+      <c r="G95" t="n">
+        <v>30</v>
+      </c>
       <c r="H95" t="n">
-        <v>3450000</v>
+        <v>19326</v>
       </c>
       <c r="I95" t="n">
-        <v>225</v>
+        <v>5.27839576818</v>
       </c>
       <c r="J95" t="n">
-        <v>15333</v>
+        <v>3661.339704</v>
       </c>
       <c r="K95" t="n">
-        <v>38227.7064</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
+        <v>124039</v>
+      </c>
+      <c r="L95" t="n">
+        <v>33284.16</v>
+      </c>
       <c r="M95" t="n">
-        <v>15919.38062</v>
-      </c>
-      <c r="N95" t="n">
-        <v>22308.32578</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
+        <v>90754.84</v>
+      </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Naples</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Louisiana</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Italian</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>58</v>
+      </c>
+      <c r="F96" t="n">
+        <v>44</v>
+      </c>
+      <c r="G96" t="n">
+        <v>66</v>
+      </c>
       <c r="H96" t="n">
-        <v>3636000</v>
+        <v>214369</v>
       </c>
       <c r="I96" t="n">
-        <v>398</v>
+        <v>55.74949406774999</v>
       </c>
       <c r="J96" t="n">
-        <v>9136</v>
+        <v>3845.218752</v>
       </c>
       <c r="K96" t="n">
-        <v>31407.74</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
+        <v>122375</v>
+      </c>
+      <c r="L96" t="n">
+        <v>26349.6</v>
+      </c>
       <c r="M96" t="n">
-        <v>14314.59813</v>
-      </c>
-      <c r="N96" t="n">
-        <v>17093.14187</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
+        <v>96025.39999999999</v>
+      </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Quebec</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>English</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F97" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G97" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H97" t="n">
-        <v>3707000</v>
+        <v>25325757</v>
       </c>
       <c r="I97" t="n">
-        <v>534</v>
+        <v>2191.342320084992</v>
       </c>
       <c r="J97" t="n">
-        <v>6942</v>
+        <v>11557.18884</v>
       </c>
       <c r="K97" t="n">
-        <v>69462.71262000001</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
+        <v>116310</v>
+      </c>
+      <c r="L97" t="n">
+        <v>45315.36</v>
+      </c>
       <c r="M97" t="n">
-        <v>20019.31971</v>
-      </c>
-      <c r="N97" t="n">
-        <v>49443.39291</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
+        <v>70994.64</v>
+      </c>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>French</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>3814000</v>
+        <v>329898</v>
       </c>
       <c r="I98" t="n">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="J98" t="n">
-        <v>16583</v>
+        <v>7854.714286</v>
       </c>
       <c r="K98" t="n">
-        <v>40298.7108</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
+        <v>53416.71381</v>
+      </c>
+      <c r="L98" t="n">
+        <v>21569.10441</v>
+      </c>
       <c r="M98" t="n">
-        <v>14715.33815</v>
-      </c>
-      <c r="N98" t="n">
-        <v>25583.37265</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
+        <v>31847.60939</v>
+      </c>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4923,89 +4985,97 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="F99" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G99" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H99" t="n">
-        <v>738577</v>
+        <v>15811</v>
       </c>
       <c r="I99" t="n">
-        <v>154.29854165325</v>
+        <v>4.81478789649</v>
       </c>
       <c r="J99" t="n">
-        <v>3169</v>
+        <v>3283.841436</v>
       </c>
       <c r="K99" t="n">
-        <v>144762</v>
+        <v>109013</v>
       </c>
       <c r="L99" t="n">
-        <v>36545</v>
+        <v>26728.44</v>
       </c>
       <c r="M99" t="n">
-        <v>38765.04</v>
-      </c>
-      <c r="N99" t="n">
-        <v>105996.96</v>
-      </c>
-      <c r="O99" t="n">
-        <v>69451.96000000001</v>
+        <v>82284.56</v>
+      </c>
+      <c r="N99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>Omaha</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>German</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>48</v>
+      </c>
+      <c r="F100" t="n">
+        <v>24</v>
+      </c>
+      <c r="G100" t="n">
+        <v>42</v>
+      </c>
       <c r="H100" t="n">
-        <v>4012000</v>
+        <v>35065</v>
       </c>
       <c r="I100" t="n">
-        <v>528</v>
+        <v>10.31851263024</v>
       </c>
       <c r="J100" t="n">
-        <v>7598</v>
+        <v>3398.261092</v>
       </c>
       <c r="K100" t="n">
-        <v>77397.645</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
+        <v>117613</v>
+      </c>
+      <c r="L100" t="n">
+        <v>24708.96</v>
+      </c>
       <c r="M100" t="n">
-        <v>24393.13133</v>
-      </c>
-      <c r="N100" t="n">
-        <v>53004.51367</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
+        <v>92904.03999999999</v>
+      </c>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5019,151 +5089,134 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F101" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G101" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H101" t="n">
-        <v>271680</v>
+        <v>126096</v>
       </c>
       <c r="I101" t="n">
-        <v>68.81080410648002</v>
+        <v>31.9086535152</v>
       </c>
       <c r="J101" t="n">
-        <v>2561</v>
+        <v>3951.780665</v>
       </c>
       <c r="K101" t="n">
-        <v>124696</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
+        <v>104105</v>
+      </c>
+      <c r="L101" t="n">
+        <v>29537.52</v>
+      </c>
       <c r="M101" t="n">
-        <v>23392.44</v>
-      </c>
-      <c r="N101" t="n">
-        <v>101303.56</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
+        <v>74567.48</v>
+      </c>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>41</v>
-      </c>
-      <c r="F102" t="n">
-        <v>36</v>
-      </c>
-      <c r="G102" t="n">
-        <v>56</v>
-      </c>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>600398</v>
+        <v>649605</v>
       </c>
       <c r="I102" t="n">
-        <v>151.7396334005699</v>
+        <v>119.63</v>
       </c>
       <c r="J102" t="n">
-        <v>3662</v>
+        <v>5430.117863</v>
       </c>
       <c r="K102" t="n">
-        <v>108564</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
+        <v>70464.23363</v>
+      </c>
+      <c r="L102" t="n">
+        <v>28579.11304</v>
+      </c>
       <c r="M102" t="n">
-        <v>30240.12</v>
-      </c>
-      <c r="N102" t="n">
-        <v>78323.88</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
+        <v>41885.12059</v>
+      </c>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>New South Wales</t>
-        </is>
-      </c>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>63</v>
-      </c>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>4712000</v>
+        <v>9747672</v>
       </c>
       <c r="I103" t="n">
-        <v>841</v>
+        <v>1147.2538</v>
       </c>
       <c r="J103" t="n">
-        <v>5603</v>
+        <v>8496.526226</v>
       </c>
       <c r="K103" t="n">
-        <v>83352.675</v>
+        <v>58328.66</v>
       </c>
       <c r="L103" t="n">
-        <v>20679.62856</v>
+        <v>25010.70551</v>
       </c>
       <c r="M103" t="n">
-        <v>28456.01782</v>
-      </c>
-      <c r="N103" t="n">
-        <v>54896.65718</v>
-      </c>
-      <c r="O103" t="n">
-        <v>34217.02862</v>
+        <v>33317.95449</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5172,81 +5225,97 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>57</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="F104" t="n">
+        <v>67</v>
+      </c>
+      <c r="G104" t="n">
+        <v>67</v>
+      </c>
       <c r="H104" t="n">
-        <v>4721000</v>
+        <v>1962568</v>
       </c>
       <c r="I104" t="n">
-        <v>1044</v>
+        <v>316.6389963880499</v>
       </c>
       <c r="J104" t="n">
-        <v>4522</v>
+        <v>6198.124749</v>
       </c>
       <c r="K104" t="n">
-        <v>72689.65647</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+        <v>126734</v>
+      </c>
+      <c r="L104" t="n">
+        <v>28137.24</v>
+      </c>
       <c r="M104" t="n">
-        <v>24548.97761</v>
-      </c>
-      <c r="N104" t="n">
-        <v>48140.67886</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
+        <v>98596.75999999999</v>
+      </c>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Spanish</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>41</v>
+      </c>
+      <c r="F105" t="n">
+        <v>36</v>
+      </c>
+      <c r="G105" t="n">
+        <v>56</v>
+      </c>
       <c r="H105" t="n">
-        <v>4800000</v>
+        <v>600398</v>
       </c>
       <c r="I105" t="n">
-        <v>414</v>
+        <v>151.7396334005699</v>
       </c>
       <c r="J105" t="n">
-        <v>11594</v>
+        <v>3956.764535</v>
       </c>
       <c r="K105" t="n">
-        <v>49355.02</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
+        <v>108564</v>
+      </c>
+      <c r="L105" t="n">
+        <v>30240.12</v>
+      </c>
       <c r="M105" t="n">
-        <v>20361.44724</v>
-      </c>
-      <c r="N105" t="n">
-        <v>28993.57276</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
+        <v>78323.88</v>
+      </c>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5260,44 +5329,45 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F106" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G106" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H106" t="n">
-        <v>260576</v>
+        <v>193769</v>
       </c>
       <c r="I106" t="n">
-        <v>61.20659901551999</v>
+        <v>45.68480027229</v>
       </c>
       <c r="J106" t="n">
-        <v>1917</v>
+        <v>4241.432574</v>
       </c>
       <c r="K106" t="n">
-        <v>111394</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
+        <v>118395</v>
+      </c>
+      <c r="L106" t="n">
+        <v>25456.2</v>
+      </c>
       <c r="M106" t="n">
-        <v>31264.08</v>
-      </c>
-      <c r="N106" t="n">
-        <v>80129.92</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
+        <v>92938.8</v>
+      </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5311,93 +5381,83 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F107" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G107" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H107" t="n">
-        <v>1962568</v>
+        <v>444832</v>
       </c>
       <c r="I107" t="n">
-        <v>316.6389963880499</v>
+        <v>112.17756502032</v>
       </c>
       <c r="J107" t="n">
-        <v>2767</v>
+        <v>3965.427489</v>
       </c>
       <c r="K107" t="n">
-        <v>126734</v>
-      </c>
-      <c r="L107" t="n">
-        <v>25088</v>
-      </c>
-      <c r="M107" t="n">
-        <v>28137.24</v>
-      </c>
-      <c r="N107" t="n">
-        <v>98596.75999999999</v>
-      </c>
-      <c r="O107" t="n">
-        <v>73508.75999999999</v>
+        <v>111565</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>5983000</v>
+        <v>692716</v>
       </c>
       <c r="I108" t="n">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="J108" t="n">
-        <v>29619</v>
+        <v>5169.522388</v>
       </c>
       <c r="K108" t="n">
-        <v>150974.1947</v>
+        <v>50988.22248</v>
       </c>
       <c r="L108" t="n">
-        <v>15954.30003</v>
+        <v>15923.4607</v>
       </c>
       <c r="M108" t="n">
-        <v>40331.81737</v>
-      </c>
-      <c r="N108" t="n">
-        <v>110642.3773</v>
-      </c>
-      <c r="O108" t="n">
-        <v>94688.07728</v>
+        <v>35064.76178</v>
+      </c>
+      <c r="N108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5411,121 +5471,128 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F109" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G109" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H109" t="n">
-        <v>2476221</v>
+        <v>12122</v>
       </c>
       <c r="I109" t="n">
-        <v>560.8930050778197</v>
+        <v>3.307414816470001</v>
       </c>
       <c r="J109" t="n">
-        <v>4737</v>
+        <v>3665.098173</v>
       </c>
       <c r="K109" t="n">
-        <v>107717</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
+        <v>129259</v>
+      </c>
+      <c r="L109" t="n">
+        <v>32034.96</v>
+      </c>
       <c r="M109" t="n">
-        <v>37321.2</v>
-      </c>
-      <c r="N109" t="n">
-        <v>70395.8</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
+        <v>97224.03999999999</v>
+      </c>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Spanish</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>51</v>
+      </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>51</v>
+      </c>
       <c r="H110" t="n">
-        <v>6211000</v>
+        <v>57739</v>
       </c>
       <c r="I110" t="n">
-        <v>527</v>
+        <v>11.68861634043</v>
       </c>
       <c r="J110" t="n">
-        <v>11786</v>
+        <v>4939.763469</v>
       </c>
       <c r="K110" t="n">
-        <v>43745.3733</v>
+        <v>106777</v>
       </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>19880.93022</v>
-      </c>
-      <c r="N110" t="n">
-        <v>23864.44307</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>6237000</v>
+        <v>2867485</v>
       </c>
       <c r="I111" t="n">
-        <v>1036</v>
+        <v>388.2308</v>
       </c>
       <c r="J111" t="n">
-        <v>6020</v>
+        <v>7386.031711</v>
       </c>
       <c r="K111" t="n">
-        <v>57123</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
+        <v>36732.47364</v>
+      </c>
+      <c r="L111" t="n">
+        <v>20030.48642</v>
+      </c>
       <c r="M111" t="n">
-        <v>16143.8955</v>
-      </c>
-      <c r="N111" t="n">
-        <v>40979.1045</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
+        <v>16701.98722</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5544,48 +5611,45 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F112" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G112" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H112" t="n">
-        <v>2331775</v>
+        <v>444003</v>
       </c>
       <c r="I112" t="n">
-        <v>389.6973809949297</v>
+        <v>122.04800970753</v>
       </c>
       <c r="J112" t="n">
-        <v>5709</v>
+        <v>3637.937243</v>
       </c>
       <c r="K112" t="n">
-        <v>129155</v>
+        <v>108579</v>
       </c>
       <c r="L112" t="n">
-        <v>39911</v>
+        <v>34381.08</v>
       </c>
       <c r="M112" t="n">
-        <v>48121.68</v>
-      </c>
-      <c r="N112" t="n">
-        <v>81033.32000000001</v>
-      </c>
-      <c r="O112" t="n">
-        <v>41122.32</v>
+        <v>74197.92</v>
+      </c>
+      <c r="N112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5599,49 +5663,50 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F113" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G113" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H113" t="n">
-        <v>925274</v>
+        <v>186833</v>
       </c>
       <c r="I113" t="n">
-        <v>219.97028017041</v>
+        <v>52.35919963176001</v>
       </c>
       <c r="J113" t="n">
-        <v>3414</v>
+        <v>3568.293658</v>
       </c>
       <c r="K113" t="n">
-        <v>103851</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
+        <v>105298</v>
+      </c>
+      <c r="L113" t="n">
+        <v>26560.56</v>
+      </c>
       <c r="M113" t="n">
-        <v>26496</v>
-      </c>
-      <c r="N113" t="n">
-        <v>77355</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
+        <v>78737.44</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ontario</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5650,44 +5715,45 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F114" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="G114" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H114" t="n">
-        <v>6771000</v>
+        <v>110256</v>
       </c>
       <c r="I114" t="n">
-        <v>905</v>
+        <v>31.07208735567</v>
       </c>
       <c r="J114" t="n">
-        <v>7482</v>
+        <v>3548.393732</v>
       </c>
       <c r="K114" t="n">
-        <v>77838.24657</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
+        <v>112451</v>
+      </c>
+      <c r="L114" t="n">
+        <v>25885.44</v>
+      </c>
       <c r="M114" t="n">
-        <v>29583.94575</v>
-      </c>
-      <c r="N114" t="n">
-        <v>48254.30082</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
+        <v>86565.56</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5701,44 +5767,45 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F115" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G115" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H115" t="n">
-        <v>776314</v>
+        <v>1232552</v>
       </c>
       <c r="I115" t="n">
-        <v>187.6083787359599</v>
+        <v>275.5928648207697</v>
       </c>
       <c r="J115" t="n">
-        <v>3410</v>
+        <v>4472.365425</v>
       </c>
       <c r="K115" t="n">
-        <v>112804</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
+        <v>101290</v>
+      </c>
+      <c r="L115" t="n">
+        <v>39137.28</v>
+      </c>
       <c r="M115" t="n">
-        <v>30036.96</v>
-      </c>
-      <c r="N115" t="n">
-        <v>82767.03999999999</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
+        <v>62152.72</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5752,89 +5819,97 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F116" t="n">
+        <v>77</v>
+      </c>
+      <c r="G116" t="n">
         <v>72</v>
       </c>
-      <c r="G116" t="n">
-        <v>69</v>
-      </c>
       <c r="H116" t="n">
-        <v>1638103</v>
+        <v>2331775</v>
       </c>
       <c r="I116" t="n">
-        <v>258.9496012259099</v>
+        <v>389.6973809949297</v>
       </c>
       <c r="J116" t="n">
-        <v>2019</v>
+        <v>5983.553172</v>
       </c>
       <c r="K116" t="n">
-        <v>111855</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
+        <v>129155</v>
+      </c>
+      <c r="L116" t="n">
+        <v>48121.68</v>
+      </c>
       <c r="M116" t="n">
-        <v>37886.76</v>
-      </c>
-      <c r="N116" t="n">
-        <v>73968.24000000001</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
+        <v>81033.32000000001</v>
+      </c>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cantonese</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>74</v>
+      </c>
+      <c r="F117" t="n">
+        <v>60</v>
+      </c>
+      <c r="G117" t="n">
+        <v>71</v>
+      </c>
       <c r="H117" t="n">
-        <v>7450000</v>
+        <v>738577</v>
       </c>
       <c r="I117" t="n">
-        <v>112</v>
+        <v>154.29854165325</v>
       </c>
       <c r="J117" t="n">
-        <v>66518</v>
+        <v>4786.675182</v>
       </c>
       <c r="K117" t="n">
-        <v>115197.75</v>
+        <v>144762</v>
       </c>
       <c r="L117" t="n">
-        <v>14407.3986</v>
+        <v>38765.04</v>
       </c>
       <c r="M117" t="n">
-        <v>32369.8575</v>
-      </c>
-      <c r="N117" t="n">
-        <v>82827.8925</v>
-      </c>
-      <c r="O117" t="n">
-        <v>68420.4939</v>
+        <v>105996.96</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>St Louis</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5848,308 +5923,307 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F118" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G118" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H118" t="n">
-        <v>1775156</v>
+        <v>132421</v>
       </c>
       <c r="I118" t="n">
-        <v>352.8729300469502</v>
+        <v>35.09174890239</v>
       </c>
       <c r="J118" t="n">
-        <v>3593</v>
+        <v>3773.56513</v>
       </c>
       <c r="K118" t="n">
-        <v>100499</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+        <v>111169</v>
+      </c>
+      <c r="L118" t="n">
+        <v>23354.04</v>
+      </c>
       <c r="M118" t="n">
-        <v>36814.8</v>
-      </c>
-      <c r="N118" t="n">
-        <v>63684.2</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
+        <v>87814.96000000001</v>
+      </c>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Illinois</t>
-        </is>
-      </c>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>77</v>
-      </c>
-      <c r="F119" t="n">
-        <v>65</v>
-      </c>
-      <c r="G119" t="n">
-        <v>72</v>
-      </c>
+          <t>Swedish</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>3025122</v>
+        <v>1305190</v>
       </c>
       <c r="I119" t="n">
-        <v>519.2693061620103</v>
+        <v>214.3946</v>
       </c>
       <c r="J119" t="n">
-        <v>3348</v>
+        <v>6087.793256</v>
       </c>
       <c r="K119" t="n">
-        <v>128004</v>
+        <v>112677.6038</v>
       </c>
       <c r="L119" t="n">
-        <v>26628</v>
+        <v>24506.93346</v>
       </c>
       <c r="M119" t="n">
-        <v>30144.12</v>
-      </c>
-      <c r="N119" t="n">
-        <v>97859.88</v>
-      </c>
-      <c r="O119" t="n">
-        <v>71231.88</v>
+        <v>88170.67038</v>
+      </c>
+      <c r="N119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Taipei</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>German</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>9079000</v>
+        <v>1346075</v>
       </c>
       <c r="I120" t="n">
-        <v>409</v>
+        <v>278</v>
       </c>
       <c r="J120" t="n">
-        <v>22198</v>
+        <v>4841.996403</v>
       </c>
       <c r="K120" t="n">
-        <v>32212.35</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
+        <v>74817.72349999999</v>
+      </c>
+      <c r="L120" t="n">
+        <v>21539.3103</v>
+      </c>
       <c r="M120" t="n">
-        <v>14630.88218</v>
-      </c>
-      <c r="N120" t="n">
-        <v>17581.46783</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
+        <v>53278.4132</v>
+      </c>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nagoya</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>Tampa</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>50</v>
+      </c>
+      <c r="F121" t="n">
+        <v>31</v>
+      </c>
+      <c r="G121" t="n">
+        <v>55</v>
+      </c>
       <c r="H121" t="n">
-        <v>9197000</v>
+        <v>145324</v>
       </c>
       <c r="I121" t="n">
-        <v>1430</v>
+        <v>38.85759161433</v>
       </c>
       <c r="J121" t="n">
-        <v>6431</v>
+        <v>3739.91269</v>
       </c>
       <c r="K121" t="n">
-        <v>43183.5</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
+        <v>122527</v>
+      </c>
+      <c r="L121" t="n">
+        <v>33465.12</v>
+      </c>
       <c r="M121" t="n">
-        <v>17038.6575</v>
-      </c>
-      <c r="N121" t="n">
-        <v>26144.8425</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
+        <v>89061.88</v>
+      </c>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Thessaloniki</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>11262000</v>
+        <v>629325</v>
       </c>
       <c r="I122" t="n">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="J122" t="n">
-        <v>16784</v>
+        <v>11654.16667</v>
       </c>
       <c r="K122" t="n">
-        <v>86960.21557</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
+        <v>65000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>14086.40659</v>
+      </c>
       <c r="M122" t="n">
-        <v>23698.8113</v>
-      </c>
-      <c r="N122" t="n">
-        <v>63261.40427</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
+        <v>50913.59341</v>
+      </c>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Turin</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>11060000</v>
+        <v>1271130</v>
       </c>
       <c r="I123" t="n">
-        <v>1102</v>
+        <v>153</v>
       </c>
       <c r="J123" t="n">
-        <v>10040</v>
+        <v>8308.039215999999</v>
       </c>
       <c r="K123" t="n">
-        <v>58328.66</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
+        <v>36436.34352</v>
+      </c>
+      <c r="L123" t="n">
+        <v>15575.02577</v>
+      </c>
       <c r="M123" t="n">
-        <v>25010.70551</v>
-      </c>
-      <c r="N123" t="n">
-        <v>33317.95449</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
+        <v>20861.31774</v>
+      </c>
+      <c r="N123" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>15126000</v>
+        <v>1445937</v>
       </c>
       <c r="I124" t="n">
-        <v>1166</v>
+        <v>124</v>
       </c>
       <c r="J124" t="n">
-        <v>12973</v>
+        <v>11660.78226</v>
       </c>
       <c r="K124" t="n">
-        <v>43183.5</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
+        <v>65000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>15988.41852</v>
+      </c>
       <c r="M124" t="n">
-        <v>15440.32244</v>
-      </c>
-      <c r="N124" t="n">
-        <v>27743.17756</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
+        <v>49011.58148</v>
+      </c>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Virginia Beach</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6163,175 +6237,171 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F125" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G125" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H125" t="n">
-        <v>8447978</v>
+        <v>134096</v>
       </c>
       <c r="I125" t="n">
-        <v>1649.610047044982</v>
+        <v>37.65583713129</v>
       </c>
       <c r="J125" t="n">
-        <v>6201</v>
+        <v>3561.094646</v>
       </c>
       <c r="K125" t="n">
-        <v>114834</v>
+        <v>108108</v>
       </c>
       <c r="L125" t="n">
-        <v>34047</v>
+        <v>27723.36</v>
       </c>
       <c r="M125" t="n">
-        <v>37424.04</v>
-      </c>
-      <c r="N125" t="n">
-        <v>77409.96000000001</v>
-      </c>
-      <c r="O125" t="n">
-        <v>43362.96</v>
+        <v>80384.64</v>
+      </c>
+      <c r="N125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
+          <t>Warsaw</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>88</v>
-      </c>
-      <c r="F126" t="n">
-        <v>89</v>
-      </c>
-      <c r="G126" t="n">
-        <v>69</v>
-      </c>
+          <t>Polish</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>25325757</v>
+        <v>1835209</v>
       </c>
       <c r="I126" t="n">
-        <v>2191.342320084992</v>
+        <v>224.897</v>
       </c>
       <c r="J126" t="n">
-        <v>4607</v>
+        <v>8160.220012</v>
       </c>
       <c r="K126" t="n">
-        <v>116310</v>
+        <v>77711.59759999999</v>
       </c>
       <c r="L126" t="n">
-        <v>33870</v>
+        <v>16074.60801</v>
       </c>
       <c r="M126" t="n">
-        <v>45315.36</v>
-      </c>
-      <c r="N126" t="n">
-        <v>70994.64</v>
-      </c>
-      <c r="O126" t="n">
-        <v>37124.64</v>
+        <v>61636.98959</v>
+      </c>
+      <c r="N126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Seoul</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>77</v>
+      </c>
+      <c r="F127" t="n">
+        <v>69</v>
+      </c>
+      <c r="G127" t="n">
+        <v>70</v>
+      </c>
       <c r="H127" t="n">
-        <v>23016000</v>
+        <v>1775156</v>
       </c>
       <c r="I127" t="n">
-        <v>1069</v>
+        <v>352.8729300469502</v>
       </c>
       <c r="J127" t="n">
-        <v>21530</v>
+        <v>5030.581404</v>
       </c>
       <c r="K127" t="n">
-        <v>59262.81</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
+        <v>100499</v>
+      </c>
+      <c r="L127" t="n">
+        <v>36814.8</v>
+      </c>
       <c r="M127" t="n">
-        <v>20522.16506</v>
-      </c>
-      <c r="N127" t="n">
-        <v>38740.64494</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
+        <v>63684.2</v>
+      </c>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>German</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>37732000</v>
+        <v>769967</v>
       </c>
       <c r="I128" t="n">
-        <v>3178</v>
+        <v>142.8149</v>
       </c>
       <c r="J128" t="n">
-        <v>11873</v>
+        <v>5391.363226</v>
       </c>
       <c r="K128" t="n">
-        <v>57578</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
+        <v>137196.7363</v>
+      </c>
+      <c r="L128" t="n">
+        <v>40856.11171</v>
+      </c>
       <c r="M128" t="n">
-        <v>20111.76239</v>
-      </c>
-      <c r="N128" t="n">
-        <v>37466.23761</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
+        <v>96340.62462</v>
+      </c>
+      <c r="N128" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
